--- a/res/tables/average_queue_length.xlsx
+++ b/res/tables/average_queue_length.xlsx
@@ -435,226 +435,226 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>30000</v>
+        <v>280000</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>40000</v>
+        <v>360000</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>50000</v>
+        <v>440000</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>60000</v>
+        <v>520000</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>70000</v>
+        <v>600000</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>80000</v>
+        <v>680000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>90000</v>
+        <v>760000</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>100000</v>
+        <v>840000</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>110000</v>
+        <v>920000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.3681818181818182</v>
+        <v>0.05141849529780566</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1010204081632653</v>
+        <v>0.02445943930808232</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0463579604578564</v>
+        <v>0.01426056338028169</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02650208209399167</v>
+        <v>0.009331266355671861</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0171280276816609</v>
+        <v>0.006578366888585867</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01197258801397474</v>
+        <v>0.004886058981233244</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008837532235667529</v>
+        <v>0.003771903601158993</v>
       </c>
       <c r="H3" t="n">
-        <v>0.006790123456790124</v>
+        <v>0.002999615961376687</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005379785050114719</v>
+        <v>0.002442374698472259</v>
       </c>
       <c r="J3" t="n">
-        <v>0.004367218900107833</v>
+        <v>0.00202715228514225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.02086108220603538</v>
+        <v>0.1370703972751387</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00513840830449827</v>
+        <v>0.0612556230738642</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001988444753025194</v>
+        <v>0.0346820024553451</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0009683613090206496</v>
+        <v>0.022310649944802</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0005423666910153396</v>
+        <v>0.01555449442082654</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0003337717582225477</v>
+        <v>0.01146277526261656</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0002198094381825359</v>
+        <v>0.008797540031726812</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0001523545706371192</v>
+        <v>0.006964863613281322</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001099065266851238</v>
+        <v>0.005650738996775582</v>
       </c>
       <c r="J4" t="n">
-        <v>8.187147638193213e-05</v>
+        <v>0.004676422516135505</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.001734212802768166</v>
+        <v>0.4057102724861347</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0003055555555555554</v>
+        <v>0.1571141100838387</v>
       </c>
       <c r="C5" t="n">
-        <v>9.152437910883856e-05</v>
+        <v>0.08406457096304187</v>
       </c>
       <c r="D5" t="n">
-        <v>3.63014938886374e-05</v>
+        <v>0.05246072801195056</v>
       </c>
       <c r="E5" t="n">
-        <v>1.71398891966759e-05</v>
+        <v>0.03588748500835234</v>
       </c>
       <c r="F5" t="n">
-        <v>9.114115684144003e-06</v>
+        <v>0.02610619416556308</v>
       </c>
       <c r="G5" t="n">
-        <v>5.283221243042671e-06</v>
+        <v>0.01984805559493809</v>
       </c>
       <c r="H5" t="n">
-        <v>3.269916765755054e-06</v>
+        <v>0.01560110031651374</v>
       </c>
       <c r="I5" t="n">
-        <v>2.130672760123286e-06</v>
+        <v>0.01258637703759655</v>
       </c>
       <c r="J5" t="n">
-        <v>1.447129165707207e-06</v>
+        <v>0.01036896645257174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0001342200208292006</v>
+        <v>0.2684583902687351</v>
       </c>
       <c r="B6" t="n">
-        <v>1.627100073046018e-05</v>
+        <v>0.1043768563136358</v>
       </c>
       <c r="C6" t="n">
-        <v>3.709284269330294e-06</v>
+        <v>0.05596140675196963</v>
       </c>
       <c r="D6" t="n">
-        <v>1.186990488199337e-06</v>
+        <v>0.03496638858675112</v>
       </c>
       <c r="E6" t="n">
-        <v>4.696196660482374e-07</v>
+        <v>0.0239399985840425</v>
       </c>
       <c r="F6" t="n">
-        <v>2.148776692009924e-07</v>
+        <v>0.01742557890357812</v>
       </c>
       <c r="G6" t="n">
-        <v>1.09303293267491e-07</v>
+        <v>0.01325438950875021</v>
       </c>
       <c r="H6" t="n">
-        <v>6.026736795967568e-08</v>
+        <v>0.01042201761628037</v>
       </c>
       <c r="I6" t="n">
-        <v>3.54054787710703e-08</v>
+        <v>0.008410496361185653</v>
       </c>
       <c r="J6" t="n">
-        <v>2.189229998325851e-08</v>
+        <v>0.006930401351656216</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.191867112969445e-06</v>
+        <v>0.2123598881670982</v>
       </c>
       <c r="B7" t="n">
-        <v>7.562811226799457e-07</v>
+        <v>0.08451110463568481</v>
       </c>
       <c r="C7" t="n">
-        <v>1.304066698461185e-07</v>
+        <v>0.04579171794584437</v>
       </c>
       <c r="D7" t="n">
-        <v>3.354999053046607e-08</v>
+        <v>0.02878529039948247</v>
       </c>
       <c r="E7" t="n">
-        <v>1.109725395897545e-08</v>
+        <v>0.01978519070086541</v>
       </c>
       <c r="F7" t="n">
-        <v>4.362200130168382e-09</v>
+        <v>0.01444078456181432</v>
       </c>
       <c r="G7" t="n">
-        <v>1.9448810360085e-09</v>
+        <v>0.01100629196075727</v>
       </c>
       <c r="H7" t="n">
-        <v>9.544634180202695e-10</v>
+        <v>0.00866778849833392</v>
       </c>
       <c r="I7" t="n">
-        <v>5.051769426043527e-10</v>
+        <v>0.007003476165886003</v>
       </c>
       <c r="J7" t="n">
-        <v>2.842112296222505e-10</v>
+        <v>0.005776776178687536</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.560106030861942e-07</v>
+        <v>0.1484719557100475</v>
       </c>
       <c r="B8" t="n">
-        <v>3.085180055401661e-08</v>
+        <v>0.7866526944475485</v>
       </c>
       <c r="C8" t="n">
-        <v>4.011946131435528e-09</v>
+        <v>0.289935809949742</v>
       </c>
       <c r="D8" t="n">
-        <v>8.284055691359336e-10</v>
+        <v>0.1567807785801245</v>
       </c>
       <c r="E8" t="n">
-        <v>2.288276627218934e-10</v>
+        <v>0.09933241727613866</v>
       </c>
       <c r="F8" t="n">
-        <v>7.721562048912102e-11</v>
+        <v>0.0688781730192556</v>
       </c>
       <c r="G8" t="n">
-        <v>3.015693919286944e-11</v>
+        <v>0.05067639803267636</v>
       </c>
       <c r="H8" t="n">
-        <v>1.316671454562865e-11</v>
+        <v>0.03889265785454739</v>
       </c>
       <c r="I8" t="n">
-        <v>6.276305109639515e-12</v>
+        <v>0.03081194645627179</v>
       </c>
       <c r="J8" t="n">
-        <v>3.21183781184449e-12</v>
+        <v>0.02502333257014815</v>
       </c>
     </row>
   </sheetData>
